--- a/interferometry_data/conc_interferometer.xlsx
+++ b/interferometry_data/conc_interferometer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaniv\Yehonathan TAU\PhyChemLab\interferometry_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28742830-DC7E-496A-8F3B-0717C850B73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908E0C75-FDAE-438A-A533-EC53CF0A9296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{20C72748-0E0E-D649-82E0-FD3A4321FAD0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{20C72748-0E0E-D649-82E0-FD3A4321FAD0}"/>
   </bookViews>
   <sheets>
     <sheet name="sucrose - py" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>V</t>
   </si>
@@ -118,6 +118,21 @@
   </si>
   <si>
     <t>suc5.xlsx</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V </t>
+  </si>
+  <si>
+    <t>25 ml</t>
+  </si>
+  <si>
+    <t>suc6.xlsx</t>
+  </si>
+  <si>
+    <t>suc7.xlsx</t>
   </si>
 </sst>
 </file>
@@ -496,17 +511,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F5E699-E881-4871-B418-5744364F2800}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="str" cm="1">
-        <f t="array" ref="A1:A7">sucrose!B1:B7</f>
+        <f t="array" ref="A1:A9">sucrose!B1:B9</f>
         <v>C[M]</v>
       </c>
       <c r="B1" t="s">
@@ -523,7 +538,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>7.2277227722772281E-3</v>
+        <v>4.8666666666666671E-2</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -531,7 +546,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>1.4313725490196078E-2</v>
+        <v>9.1250000000000012E-2</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -539,7 +554,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>2.1262135922330096E-2</v>
+        <v>0.12882352941176473</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -547,7 +562,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>2.8076923076923076E-2</v>
+        <v>0.16222222222222224</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -555,10 +570,26 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>3.4761904761904758E-2</v>
+        <v>0.19210526315789475</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>0.21900000000000003</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>0.24333333333333337</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +627,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>0.16930693069306932</v>
+        <v>1.5545454545454547</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -604,7 +635,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>0.3352941176470588</v>
+        <v>2.85</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -612,7 +643,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>0.49805825242718443</v>
+        <v>3.9461538461538459</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -620,7 +651,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>0.65769230769230769</v>
+        <v>4.8857142857142852</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -628,7 +659,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>0.81428571428571428</v>
+        <v>5.7</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -642,20 +673,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB3678D-401B-3C40-BA16-E505D34D7AB6}">
-  <dimension ref="A1:E1678"/>
+  <dimension ref="A1:H1678"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.9140625" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -668,97 +699,123 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <f>D2</f>
-        <v>2E-3</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2E-3</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="E2">
         <v>1.4600000000000001E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G2">
+        <v>6.25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <f>A2+0.00002</f>
-        <v>2.0200000000000001E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="B3" s="1">
         <f>1*E2/A3</f>
-        <v>7.2277227722772281E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>4.8666666666666671E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
-        <f t="shared" ref="A4:A7" si="0">A3+0.00002</f>
-        <v>2.0400000000000001E-3</v>
+        <f t="shared" ref="A4:A9" si="0">A3+0.00002</f>
+        <v>3.1999999999999997E-4</v>
       </c>
       <c r="B4" s="1">
         <f>2*E$2/A4</f>
-        <v>1.4313725490196078E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>9.1250000000000012E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>2.0600000000000002E-3</v>
+        <v>3.3999999999999997E-4</v>
       </c>
       <c r="B5" s="1">
         <f>3*E2/A5</f>
-        <v>2.1262135922330096E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.12882352941176473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>2.0800000000000003E-3</v>
+        <v>3.5999999999999997E-4</v>
       </c>
       <c r="B6" s="1">
         <f>4*E2/A6</f>
-        <v>2.8076923076923076E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.16222222222222224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>2.1000000000000003E-3</v>
+        <v>3.7999999999999997E-4</v>
       </c>
       <c r="B7" s="1">
         <f>5*E$2/A7</f>
-        <v>3.4761904761904758E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.19210526315789475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>3.9999999999999996E-4</v>
+      </c>
+      <c r="B8" s="1">
+        <f>6*E$2/A8</f>
+        <v>0.21900000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>4.1999999999999996E-4</v>
+      </c>
+      <c r="B9" s="1">
+        <f>7*E$2/A9</f>
+        <v>0.24333333333333337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
@@ -5757,7 +5814,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -5783,13 +5840,13 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <f>D2</f>
-        <v>2E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="E2">
         <v>3.4200000000000002E-4</v>
@@ -5798,51 +5855,51 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <f>A2+0.00002</f>
-        <v>2.0200000000000001E-3</v>
+        <v>2.2000000000000001E-4</v>
       </c>
       <c r="B3">
         <f>1*E2/A3</f>
-        <v>0.16930693069306932</v>
+        <v>1.5545454545454547</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" ref="A4:A7" si="0">A3+0.00002</f>
-        <v>2.0400000000000001E-3</v>
+        <v>2.4000000000000001E-4</v>
       </c>
       <c r="B4">
         <f>2*E2/A4</f>
-        <v>0.3352941176470588</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>2.0600000000000002E-3</v>
+        <v>2.6000000000000003E-4</v>
       </c>
       <c r="B5">
         <f>3*E2/A5</f>
-        <v>0.49805825242718443</v>
+        <v>3.9461538461538459</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>2.0800000000000003E-3</v>
+        <v>2.8000000000000003E-4</v>
       </c>
       <c r="B6">
         <f>4*E2/A6</f>
-        <v>0.65769230769230769</v>
+        <v>4.8857142857142852</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>2.1000000000000003E-3</v>
+        <v>3.0000000000000003E-4</v>
       </c>
       <c r="B7">
         <f>5*E2/A7</f>
-        <v>0.81428571428571428</v>
+        <v>5.7</v>
       </c>
     </row>
   </sheetData>
